--- a/data/output/FV2304_FV2210/MSCONS/13002.xlsx
+++ b/data/output/FV2304_FV2210/MSCONS/13002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="371">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="371">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -1262,6 +1262,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U191" totalsRowShown="0">
+  <autoFilter ref="A1:U191"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1551,7 +1581,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10639,5 +10672,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/MSCONS/13002.xlsx
+++ b/data/output/FV2304_FV2210/MSCONS/13002.xlsx
@@ -2254,7 +2254,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -3562,22 +3562,22 @@
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
         <v>307</v>
       </c>
       <c r="K30" s="6" t="s">
@@ -3586,19 +3586,19 @@
       <c r="L30" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5" t="s">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2" t="s">
         <v>307</v>
       </c>
       <c r="V30" s="6" t="s">
@@ -3778,7 +3778,7 @@
         <v>349</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="2"/>
@@ -5384,7 +5384,7 @@
         <v>352</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6642,7 +6642,7 @@
         <v>358</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6850,7 +6850,7 @@
         <v>358</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7058,7 +7058,7 @@
         <v>360</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7320,7 +7320,7 @@
         <v>362</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7528,7 +7528,7 @@
         <v>364</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7736,7 +7736,7 @@
         <v>366</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8214,7 +8214,7 @@
         <v>367</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8854,7 +8854,7 @@
         <v>368</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -10196,7 +10196,7 @@
         <v>369</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -11430,7 +11430,7 @@
         <v>370</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N186" s="2"/>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N189" s="2"/>
